--- a/Upload/final.xlsx
+++ b/Upload/final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t xml:space="preserve">Mech 6th B</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">RAKESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">RAM RAGHAV</t>
@@ -458,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,11 +524,17 @@
       <c r="D3" s="3" t="n">
         <v>14</v>
       </c>
+      <c r="E3" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="F3" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,11 +550,17 @@
       <c r="D4" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="E4" s="2" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F4" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,11 +576,17 @@
       <c r="D5" s="3" t="n">
         <v>5.5</v>
       </c>
+      <c r="E5" s="2" t="n">
+        <v>13.5</v>
+      </c>
       <c r="F5" s="3" t="n">
         <v>28</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,10 +602,16 @@
       <c r="D6" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -601,10 +628,16 @@
       <c r="D7" s="3" t="n">
         <v>11</v>
       </c>
+      <c r="E7" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,10 +654,16 @@
       <c r="D8" s="3" t="n">
         <v>13</v>
       </c>
+      <c r="E8" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="F8" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -641,11 +680,17 @@
       <c r="D9" s="3" t="n">
         <v>13</v>
       </c>
+      <c r="E9" s="2" t="n">
+        <v>12</v>
+      </c>
       <c r="F9" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,10 +706,16 @@
       <c r="D10" s="3" t="n">
         <v>15</v>
       </c>
+      <c r="E10" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="F10" s="3" t="n">
         <v>45</v>
       </c>
       <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -681,12 +732,18 @@
       <c r="D11" s="3" t="n">
         <v>4.5</v>
       </c>
+      <c r="E11" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="H11" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="n">
@@ -701,10 +758,16 @@
       <c r="D12" s="3" t="n">
         <v>14</v>
       </c>
+      <c r="E12" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="F12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -721,11 +784,17 @@
       <c r="D13" s="3" t="n">
         <v>14.5</v>
       </c>
+      <c r="E13" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="F13" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,11 +810,17 @@
       <c r="D14" s="3" t="n">
         <v>14.5</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="3" t="n">
         <v>48</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>200041700085</v>
@@ -761,10 +836,16 @@
       <c r="D15" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="E15" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="F15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -773,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>200041700086</v>
@@ -781,10 +862,16 @@
       <c r="D16" s="3" t="n">
         <v>3</v>
       </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -793,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>200041700087</v>
@@ -801,10 +888,16 @@
       <c r="D17" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="E17" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="F17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -813,7 +906,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>200041700088</v>
@@ -821,10 +914,16 @@
       <c r="D18" s="3" t="n">
         <v>11.5</v>
       </c>
+      <c r="E18" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="F18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,7 +932,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>200041700089</v>
@@ -841,10 +940,16 @@
       <c r="D19" s="3" t="n">
         <v>11.5</v>
       </c>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,7 +958,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>200041700090</v>
@@ -861,10 +966,16 @@
       <c r="D20" s="3" t="n">
         <v>9.5</v>
       </c>
+      <c r="E20" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -873,7 +984,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>200041700094</v>
@@ -881,11 +992,17 @@
       <c r="D21" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="E21" s="2" t="n">
+        <v>11</v>
+      </c>
       <c r="F21" s="3" t="n">
         <v>20</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,7 +1010,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>200041700096</v>
@@ -901,11 +1018,17 @@
       <c r="D22" s="3" t="n">
         <v>14</v>
       </c>
+      <c r="E22" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="F22" s="3" t="n">
         <v>36</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>200041700098</v>
@@ -921,11 +1044,17 @@
       <c r="D23" s="3" t="n">
         <v>12.5</v>
       </c>
+      <c r="E23" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="F23" s="3" t="n">
         <v>40</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,7 +1062,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>200041700099</v>
@@ -941,11 +1070,17 @@
       <c r="D24" s="3" t="n">
         <v>15.5</v>
       </c>
+      <c r="E24" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="F24" s="3" t="n">
         <v>45</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,7 +1088,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="10" t="n">
         <v>200041700100</v>
@@ -961,10 +1096,16 @@
       <c r="D25" s="3" t="n">
         <v>7</v>
       </c>
+      <c r="E25" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="F25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -973,7 +1114,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="10" t="n">
         <v>200041700102</v>
@@ -981,10 +1122,16 @@
       <c r="D26" s="3" t="n">
         <v>9.5</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -993,7 +1140,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="10" t="n">
         <v>200041700105</v>
@@ -1001,11 +1148,17 @@
       <c r="D27" s="3" t="n">
         <v>15.5</v>
       </c>
+      <c r="E27" s="2" t="n">
+        <v>11</v>
+      </c>
       <c r="F27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,7 +1166,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28" s="10" t="n">
         <v>200041700107</v>
@@ -1021,10 +1174,16 @@
       <c r="D28" s="3" t="n">
         <v>19</v>
       </c>
+      <c r="E28" s="2" t="n">
+        <v>11</v>
+      </c>
       <c r="F28" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1033,7 +1192,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="10" t="n">
         <v>200041700108</v>
@@ -1041,11 +1200,17 @@
       <c r="D29" s="3" t="n">
         <v>22</v>
       </c>
+      <c r="E29" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="F29" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,7 +1218,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" s="10" t="n">
         <v>200041700109</v>
@@ -1061,11 +1226,17 @@
       <c r="D30" s="3" t="n">
         <v>9.5</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F30" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1244,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="10" t="n">
         <v>200041700113</v>
@@ -1081,11 +1252,17 @@
       <c r="D31" s="3" t="n">
         <v>16.5</v>
       </c>
+      <c r="E31" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="F31" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,7 +1270,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="10" t="n">
         <v>200041700115</v>
@@ -1101,10 +1278,16 @@
       <c r="D32" s="3" t="n">
         <v>6.5</v>
       </c>
+      <c r="E32" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" s="3" t="n">
         <v>36</v>
       </c>
       <c r="G32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,7 +1296,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="10" t="n">
         <v>200041700116</v>
@@ -1121,10 +1304,16 @@
       <c r="D33" s="3" t="n">
         <v>11.5</v>
       </c>
+      <c r="E33" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="F33" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1133,7 +1322,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="10" t="n">
         <v>200041700117</v>
@@ -1141,11 +1330,17 @@
       <c r="D34" s="3" t="n">
         <v>15.5</v>
       </c>
+      <c r="E34" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="F34" s="3" t="n">
         <v>48</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,7 +1348,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="10" t="n">
         <v>200041700119</v>
@@ -1161,10 +1356,16 @@
       <c r="D35" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="E35" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="F35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1173,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="10" t="n">
         <v>200041700120</v>
@@ -1181,10 +1382,16 @@
       <c r="D36" s="3" t="n">
         <v>12</v>
       </c>
+      <c r="E36" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="F36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1193,7 +1400,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="10" t="n">
         <v>200041700122</v>
@@ -1201,11 +1408,17 @@
       <c r="D37" s="3" t="n">
         <v>17</v>
       </c>
+      <c r="E37" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="F37" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="10" t="n">
         <v>200041700123</v>
@@ -1221,11 +1434,17 @@
       <c r="D38" s="3" t="n">
         <v>19</v>
       </c>
+      <c r="E38" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="F38" s="3" t="n">
         <v>48</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1452,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="10" t="n">
         <v>200041700124</v>
@@ -1241,11 +1460,17 @@
       <c r="D39" s="3" t="n">
         <v>21</v>
       </c>
+      <c r="E39" s="2" t="n">
+        <v>23</v>
+      </c>
       <c r="F39" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,7 +1478,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="10" t="n">
         <v>200041700126</v>
@@ -1261,11 +1486,17 @@
       <c r="D40" s="3" t="n">
         <v>17.5</v>
       </c>
+      <c r="E40" s="2" t="n">
+        <v>19</v>
+      </c>
       <c r="F40" s="3" t="n">
         <v>42</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1504,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="13" t="n">
         <v>200041721009</v>
@@ -1281,11 +1512,17 @@
       <c r="D41" s="3" t="n">
         <v>11</v>
       </c>
+      <c r="E41" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="F41" s="3" t="n">
         <v>37</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="13" t="n">
         <v>200041721010</v>
@@ -1301,11 +1538,17 @@
       <c r="D42" s="3" t="n">
         <v>19</v>
       </c>
+      <c r="E42" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,7 +1556,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="13" t="n">
         <v>200041721011</v>
@@ -1321,11 +1564,17 @@
       <c r="D43" s="3" t="n">
         <v>19</v>
       </c>
+      <c r="E43" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="F43" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,7 +1582,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="13" t="n">
         <v>200041721012</v>
@@ -1341,10 +1590,16 @@
       <c r="D44" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="E44" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F44" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1361,10 +1616,16 @@
       <c r="D45" s="3" t="n">
         <v>15</v>
       </c>
+      <c r="E45" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="F45" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,7 +1634,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="13" t="n">
         <v>200041721014</v>
@@ -1381,11 +1642,17 @@
       <c r="D46" s="3" t="n">
         <v>15</v>
       </c>
+      <c r="E46" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="F46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,7 +1660,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="13" t="n">
         <v>200041721015</v>
@@ -1401,11 +1668,17 @@
       <c r="D47" s="3" t="n">
         <v>13</v>
       </c>
+      <c r="E47" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="F47" s="3" t="n">
         <v>36</v>
       </c>
       <c r="G47" s="3" t="n">
         <v>10</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,7 +1686,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="13" t="n">
         <v>200041721016</v>
@@ -1421,10 +1694,16 @@
       <c r="D48" s="3" t="n">
         <v>3</v>
       </c>
+      <c r="E48" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1433,7 +1712,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" s="13" t="n">
         <v>190041700117</v>
@@ -1441,10 +1720,16 @@
       <c r="D49" s="3" t="n">
         <v>10</v>
       </c>
+      <c r="E49" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F49" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1453,7 +1738,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="13" t="n">
         <v>190041700128</v>
@@ -1461,10 +1746,16 @@
       <c r="D50" s="3" t="n">
         <v>9</v>
       </c>
+      <c r="E50" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="F50" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1473,7 +1764,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="13" t="n">
         <v>190041720020</v>
@@ -1481,11 +1772,17 @@
       <c r="D51" s="3" t="n">
         <v>8</v>
       </c>
+      <c r="E51" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="F51" s="3" t="n">
         <v>50</v>
       </c>
       <c r="G51" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Upload/final.xlsx
+++ b/Upload/final.xlsx
@@ -37,16 +37,16 @@
     <t xml:space="preserve">S1 (25)</t>
   </si>
   <si>
-    <t xml:space="preserve">S2(25)</t>
+    <t xml:space="preserve">S2 (25)</t>
   </si>
   <si>
     <t xml:space="preserve">A1 (50)</t>
   </si>
   <si>
-    <t xml:space="preserve">A2(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3(30)</t>
+    <t xml:space="preserve">A2 (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3 (30)</t>
   </si>
   <si>
     <t xml:space="preserve">NEERAJ</t>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Upload/final.xlsx
+++ b/Upload/final.xlsx
@@ -461,8 +461,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1542,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>0</v>

--- a/Upload/final.xlsx
+++ b/Upload/final.xlsx
@@ -483,13 +483,13 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.14"/>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>24</v>
       </c>
@@ -1226,13 +1226,13 @@
         <v>12.5</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="n">
         <v>44</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H46" s="4" t="n">
         <v>0</v>

--- a/Upload/final.xlsx
+++ b/Upload/final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t xml:space="preserve">Mech 6th B</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">A3 (30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final</t>
   </si>
   <si>
     <t xml:space="preserve">NEERAJ</t>
@@ -481,10 +484,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -538,13 +541,16 @@
       <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11" t="n">
         <v>200041700068</v>
@@ -566,6 +572,10 @@
       </c>
       <c r="I3" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <f aca="false">7.5+2.5+6</f>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11" t="n">
         <v>200041700070</v>
@@ -595,6 +605,10 @@
       </c>
       <c r="I4" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <f aca="false">7.5+2.5+5</f>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>200041700072</v>
@@ -624,6 +638,10 @@
       </c>
       <c r="I5" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <f aca="false">7.5+2+5.5</f>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="11" t="n">
         <v>200041700073</v>
@@ -653,6 +671,10 @@
       </c>
       <c r="I6" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">7.5+2.5+5</f>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11" t="n">
         <v>200041700074</v>
@@ -672,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>0</v>
@@ -682,6 +704,9 @@
       </c>
       <c r="I7" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="11" t="n">
         <v>200041700076</v>
@@ -711,6 +736,9 @@
       </c>
       <c r="I8" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="11" t="n">
         <v>200041700077</v>
@@ -740,6 +768,9 @@
       </c>
       <c r="I9" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="11" t="n">
         <v>200041700078</v>
@@ -769,6 +800,9 @@
       </c>
       <c r="I10" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="11" t="n">
         <v>200041700079</v>
@@ -799,13 +833,16 @@
       <c r="I11" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="J11" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="11" t="n">
         <v>200041700080</v>
@@ -827,6 +864,9 @@
       </c>
       <c r="I12" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="11" t="n">
         <v>200041700081</v>
@@ -856,6 +896,9 @@
       </c>
       <c r="I13" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11" t="n">
         <v>200041700084</v>
@@ -872,10 +915,10 @@
         <v>14.5</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>48</v>
@@ -885,6 +928,9 @@
       </c>
       <c r="I14" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="n">
         <v>200041700085</v>
@@ -914,6 +960,9 @@
       </c>
       <c r="I15" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="11" t="n">
         <v>200041700086</v>
@@ -933,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>0</v>
@@ -943,6 +992,9 @@
       </c>
       <c r="I16" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="11" t="n">
         <v>200041700087</v>
@@ -973,13 +1025,16 @@
       <c r="I17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="J17" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="11" t="n">
         <v>200041700088</v>
@@ -991,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>0</v>
@@ -1001,6 +1056,9 @@
       </c>
       <c r="I18" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,7 +1066,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="11" t="n">
         <v>200041700089</v>
@@ -1030,6 +1088,9 @@
       </c>
       <c r="I19" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,7 +1098,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="11" t="n">
         <v>200041700090</v>
@@ -1049,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>0</v>
@@ -1059,6 +1120,9 @@
       </c>
       <c r="I20" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,7 +1130,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="11" t="n">
         <v>200041700094</v>
@@ -1088,6 +1152,10 @@
       </c>
       <c r="I21" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <f aca="false">7.5+2.5+5</f>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="11" t="n">
         <v>200041700096</v>
@@ -1117,6 +1185,9 @@
       </c>
       <c r="I22" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1124,7 +1195,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11" t="n">
         <v>200041700098</v>
@@ -1146,6 +1217,9 @@
       </c>
       <c r="I23" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,7 +1227,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="11" t="n">
         <v>200041700099</v>
@@ -1175,6 +1249,9 @@
       </c>
       <c r="I24" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,7 +1259,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="11" t="n">
         <v>200041700100</v>
@@ -1204,6 +1281,9 @@
       </c>
       <c r="I25" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,7 +1291,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="11" t="n">
         <v>200041700102</v>
@@ -1220,7 +1300,7 @@
         <v>9.5</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="12" t="n">
         <v>12.5</v>
@@ -1233,6 +1313,9 @@
       </c>
       <c r="I26" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,7 +1323,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11" t="n">
         <v>200041700105</v>
@@ -1252,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>0</v>
@@ -1262,6 +1345,9 @@
       </c>
       <c r="I27" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1355,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="11" t="n">
         <v>200041700107</v>
@@ -1291,6 +1377,9 @@
       </c>
       <c r="I28" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="11" t="n">
         <v>200041700108</v>
@@ -1310,7 +1399,7 @@
         <v>20</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>50</v>
@@ -1320,6 +1409,9 @@
       </c>
       <c r="I29" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,7 +1419,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="11" t="n">
         <v>200041700109</v>
@@ -1336,7 +1428,7 @@
         <v>9.5</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" s="12" t="n">
         <v>20.5</v>
@@ -1349,6 +1441,10 @@
       </c>
       <c r="I30" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <f aca="false">7.5+2.5+9</f>
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,7 +1452,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="11" t="n">
         <v>200041700113</v>
@@ -1378,6 +1474,9 @@
       </c>
       <c r="I31" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,7 +1484,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="11" t="n">
         <v>200041700115</v>
@@ -1407,6 +1506,9 @@
       </c>
       <c r="I32" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,7 +1516,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="11" t="n">
         <v>200041700116</v>
@@ -1436,6 +1538,10 @@
       </c>
       <c r="I33" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <f aca="false">7.5+2.5+7</f>
+        <v>17</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,7 +1549,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="11" t="n">
         <v>200041700117</v>
@@ -1465,6 +1571,9 @@
       </c>
       <c r="I34" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="11" t="n">
         <v>200041700119</v>
@@ -1484,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>0</v>
@@ -1494,6 +1603,9 @@
       </c>
       <c r="I35" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1613,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="11" t="n">
         <v>200041700120</v>
@@ -1523,6 +1635,9 @@
       </c>
       <c r="I36" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,7 +1645,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="11" t="n">
         <v>200041700122</v>
@@ -1552,6 +1667,9 @@
       </c>
       <c r="I37" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,7 +1677,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="11" t="n">
         <v>200041700123</v>
@@ -1571,7 +1689,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>48</v>
@@ -1581,6 +1699,9 @@
       </c>
       <c r="I38" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1709,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="11" t="n">
         <v>200041700124</v>
@@ -1600,7 +1721,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>50</v>
@@ -1610,6 +1731,9 @@
       </c>
       <c r="I39" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,7 +1741,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="11" t="n">
         <v>200041700126</v>
@@ -1639,6 +1763,9 @@
       </c>
       <c r="I40" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1646,7 +1773,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="15" t="n">
         <v>200041721009</v>
@@ -1668,6 +1795,9 @@
       </c>
       <c r="I41" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1805,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="15" t="n">
         <v>200041721010</v>
@@ -1684,7 +1814,7 @@
         <v>19</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" s="12" t="n">
         <v>24</v>
@@ -1697,6 +1827,9 @@
       </c>
       <c r="I42" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +1837,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="15" t="n">
         <v>200041721011</v>
@@ -1716,16 +1849,19 @@
         <v>7</v>
       </c>
       <c r="F43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="n">
         <v>15</v>
-      </c>
-      <c r="G43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,7 +1869,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" s="15" t="n">
         <v>200041721012</v>
@@ -1742,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" s="12" t="n">
         <v>2.5</v>
@@ -1755,6 +1891,9 @@
       </c>
       <c r="I44" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,7 +1901,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C45" s="15" t="n">
         <v>200041721013</v>
@@ -1774,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>0</v>
@@ -1784,6 +1923,9 @@
       </c>
       <c r="I45" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,7 +1933,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="15" t="n">
         <v>200041721014</v>
@@ -1813,6 +1955,9 @@
       </c>
       <c r="I46" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1820,7 +1965,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15" t="n">
         <v>200041721015</v>
@@ -1842,6 +1987,9 @@
       </c>
       <c r="I47" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,7 +1997,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="15" t="n">
         <v>200041721016</v>
@@ -1861,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G48" s="4" t="n">
         <v>0</v>
@@ -1871,6 +2019,9 @@
       </c>
       <c r="I48" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +2029,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" s="15" t="n">
         <v>190041700117</v>
@@ -1887,7 +2038,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" s="12" t="n">
         <v>6</v>
@@ -1901,19 +2052,22 @@
       <c r="I49" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="15" t="n">
         <v>190041700128</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" s="12" t="n">
         <v>7</v>
@@ -1929,6 +2083,9 @@
       </c>
       <c r="I50" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,7 +2093,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="15" t="n">
         <v>190041720020</v>
@@ -1958,6 +2115,9 @@
       </c>
       <c r="I51" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
